--- a/datasets/holidays.xlsx
+++ b/datasets/holidays.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bicaj\Documents\Graduate Courses\DS 5220 - Supervised Machine Learning\smlproject\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE7A37-3957-4597-A0BB-AE0A89DC91E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9956B0A-7341-4229-BC24-825AA506FA88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{85A40F23-2F78-448B-9A40-862266829EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="holidays" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="festivals" sheetId="5" r:id="rId2"/>
+    <sheet name="holidays orig" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">holidays!$A$1:$E$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">holidays!$A$1:$E$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'holidays orig'!$A$1:$E$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="122">
   <si>
     <t>Tuesday</t>
   </si>
@@ -361,12 +363,6 @@
     <t>AN, AR, CL, EX, LO, M, ML, O, S</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -379,181 +375,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>Autonomous Communities</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>National except Basque</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Epiphany Holiday</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Andalusia Regional Holiday</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Balearic Islands Regional Holiday</t>
-  </si>
-  <si>
-    <t>St Joseph's Day</t>
-  </si>
-  <si>
-    <t>Aragon Regional Holiday</t>
-  </si>
-  <si>
-    <t>Castile and León Regional Holiday</t>
-  </si>
-  <si>
-    <t>Castile and Leon</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Labour Day</t>
-  </si>
-  <si>
-    <t>Madrid Regional Holiday</t>
-  </si>
-  <si>
-    <t>San Isidro *</t>
-  </si>
-  <si>
-    <t>Galician Literature Day</t>
-  </si>
-  <si>
-    <t>Canary Islands Regional Holiday</t>
-  </si>
-  <si>
-    <t>Castile-La Mancha Regional Holiday</t>
-  </si>
-  <si>
-    <t>Murcia Regional Holiday</t>
-  </si>
-  <si>
-    <t>La Rioja Regional Holiday</t>
-  </si>
-  <si>
-    <t>St John's Day</t>
-  </si>
-  <si>
-    <t>Catalonia &amp; Valencia</t>
-  </si>
-  <si>
-    <t>National Day of Galicia</t>
-  </si>
-  <si>
-    <t>Saint James' Day</t>
-  </si>
-  <si>
-    <t>Day of the Institutions</t>
-  </si>
-  <si>
-    <t>Our Lady of Africa</t>
-  </si>
-  <si>
-    <t>Ceuta &amp; Melilla</t>
-  </si>
-  <si>
-    <t>Day of Ceuta</t>
-  </si>
-  <si>
-    <t>Extremadura Regional Holiday</t>
-  </si>
-  <si>
-    <t>Our Lady of Victories</t>
-  </si>
-  <si>
-    <t>Asturias Regional Holiday</t>
-  </si>
-  <si>
-    <t>Our Lady of Victories Holiday</t>
-  </si>
-  <si>
-    <t>National Day of Catalonia</t>
-  </si>
-  <si>
-    <t>Cantabria Regional Holiday</t>
-  </si>
-  <si>
-    <t>Valencian Regional Holiday</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Fiesta Nacional de España</t>
-  </si>
-  <si>
-    <t>Virgin of Almudena *</t>
-  </si>
-  <si>
-    <t>San Francisco Javier</t>
-  </si>
-  <si>
-    <t>Immaculate Conception Holiday</t>
-  </si>
-  <si>
-    <t>Andalusia, Aragon, Asturias,</t>
-  </si>
-  <si>
-    <t>National except Murcia</t>
-  </si>
-  <si>
-    <t>Balearic Islands &amp;</t>
-  </si>
-  <si>
-    <t>Basque Country &amp; Cantabria</t>
-  </si>
-  <si>
-    <t>Balearic Islands, Basque
-Country, Cantabria, Castile-La
-Mancha, Catalonia, La
-Rioja, Navarre &amp;
-Valencia</t>
-  </si>
-  <si>
-    <t>National except Balearic
-Islands, Basque Country,
-Cantabria, Castile-La Mancha,
-Catalonia, Galicia, La
-Rioja, Murcia &amp;
-Valencia</t>
-  </si>
-  <si>
-    <t>National except Basque National except Basque
-Country &amp; La
-Rioja</t>
-  </si>
-  <si>
-    <t>Basque Country, Castile-La
-Mancha, Galicia, Murcia,
-Navarre &amp; Valencia</t>
-  </si>
-  <si>
-    <t>National except Catalonia &amp; Valencia</t>
-  </si>
-  <si>
     <t>Europe Day</t>
   </si>
   <si>
@@ -561,53 +382,40 @@
   </si>
   <si>
     <t>Orthodox Easter</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>festival</t>
+  </si>
+  <si>
+    <t>Feria de Sevilla</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Merce </t>
+  </si>
+  <si>
+    <t>Fiestas del Pilar</t>
+  </si>
+  <si>
+    <t>Gràcia Festival</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF454545"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF454545"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -630,8 +438,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,18 +455,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -659,76 +468,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1041,15 +798,870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD714C3E-5B86-456C-9A79-8469E1BACE5F}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="34.90625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>43594</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>43625</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>43625</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>43626</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>43626</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>43636</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>43640</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>43716</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>43717</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>43719</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E29" xr:uid="{199EC6E0-E5D2-4E04-80DC-7468FFE9E7B3}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCC86F6-1A03-4C2E-870F-CACFD807CFAE}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>43589</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>43590</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>43591</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>43592</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>43593</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>43594</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>43595</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>43596</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>43729</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>43730</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>43731</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>43732</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>43742</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>43743</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>43744</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>43745</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>43746</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>43747</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>43748</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>43749</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>43750</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>43751</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>43692</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>43693</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>43694</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>43695</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>43696</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>43697</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>43698</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72AD146-E37E-4D37-B50A-3096B131C434}">
+  <dimension ref="A1:E66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" customWidth="1"/>
     <col min="3" max="3" width="34.90625" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" customWidth="1"/>
@@ -1057,24 +1669,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+      <c r="A2" s="1">
         <v>43466</v>
       </c>
       <c r="B2" t="s">
@@ -1091,7 +1703,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3" s="1">
         <v>43467</v>
       </c>
       <c r="B3" t="s">
@@ -1108,7 +1720,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="A4" s="1">
         <v>43471</v>
       </c>
       <c r="B4" t="s">
@@ -1125,7 +1737,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
         <v>43472</v>
       </c>
       <c r="B5" t="s">
@@ -1142,7 +1754,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6" s="1">
         <v>43494</v>
       </c>
       <c r="B6" t="s">
@@ -1159,7 +1771,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7" s="1">
         <v>43510</v>
       </c>
       <c r="B7" t="s">
@@ -1176,7 +1788,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8" s="1">
         <v>43524</v>
       </c>
       <c r="B8" t="s">
@@ -1193,7 +1805,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="A9" s="1">
         <v>43525</v>
       </c>
       <c r="B9" t="s">
@@ -1210,7 +1822,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="A10" s="1">
         <v>43529</v>
       </c>
       <c r="B10" t="s">
@@ -1227,7 +1839,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="A11" s="1">
         <v>43530</v>
       </c>
       <c r="B11" t="s">
@@ -1244,7 +1856,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="A12" s="1">
         <v>43543</v>
       </c>
       <c r="B12" t="s">
@@ -1261,7 +1873,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="1">
         <v>43544</v>
       </c>
       <c r="B13" t="s">
@@ -1278,7 +1890,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14" s="1">
         <v>43569</v>
       </c>
       <c r="B14" t="s">
@@ -1295,7 +1907,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15" s="1">
         <v>43573</v>
       </c>
       <c r="B15" t="s">
@@ -1312,7 +1924,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="A16" s="1">
         <v>43574</v>
       </c>
       <c r="B16" t="s">
@@ -1329,7 +1941,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17" s="1">
         <v>43576</v>
       </c>
       <c r="B17" t="s">
@@ -1346,7 +1958,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+      <c r="A18" s="1">
         <v>43577</v>
       </c>
       <c r="B18" t="s">
@@ -1363,7 +1975,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A19" s="1">
         <v>43578</v>
       </c>
       <c r="B19" t="s">
@@ -1380,7 +1992,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="A20" s="1">
         <v>43578</v>
       </c>
       <c r="B20" t="s">
@@ -1397,7 +2009,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="A21" s="1">
         <v>43578</v>
       </c>
       <c r="B21" t="s">
@@ -1414,21 +2026,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+      <c r="A22" s="1">
         <v>43583</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+      <c r="A23" s="1">
         <v>43586</v>
       </c>
       <c r="B23" t="s">
@@ -1445,7 +2057,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+      <c r="A24" s="1">
         <v>43587</v>
       </c>
       <c r="B24" t="s">
@@ -1462,7 +2074,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="A25" s="1">
         <v>43590</v>
       </c>
       <c r="B25" t="s">
@@ -1479,21 +2091,21 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+      <c r="A26" s="1">
         <v>43594</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="A27" s="1">
         <v>43600</v>
       </c>
       <c r="B27" t="s">
@@ -1510,7 +2122,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+      <c r="A28" s="1">
         <v>43602</v>
       </c>
       <c r="B28" t="s">
@@ -1527,7 +2139,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+      <c r="A29" s="1">
         <v>43615</v>
       </c>
       <c r="B29" t="s">
@@ -1544,7 +2156,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+      <c r="A30" s="1">
         <v>43616</v>
       </c>
       <c r="B30" t="s">
@@ -1561,7 +2173,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+      <c r="A31" s="1">
         <v>43625</v>
       </c>
       <c r="B31" t="s">
@@ -1578,7 +2190,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
+      <c r="A32" s="1">
         <v>43625</v>
       </c>
       <c r="B32" t="s">
@@ -1595,7 +2207,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+      <c r="A33" s="1">
         <v>43625</v>
       </c>
       <c r="B33" t="s">
@@ -1612,7 +2224,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
+      <c r="A34" s="1">
         <v>43626</v>
       </c>
       <c r="B34" t="s">
@@ -1629,7 +2241,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
+      <c r="A35" s="1">
         <v>43626</v>
       </c>
       <c r="B35" t="s">
@@ -1646,7 +2258,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
+      <c r="A36" s="1">
         <v>43626</v>
       </c>
       <c r="B36" t="s">
@@ -1663,7 +2275,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
+      <c r="A37" s="1">
         <v>43629</v>
       </c>
       <c r="B37" t="s">
@@ -1680,7 +2292,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
+      <c r="A38" s="1">
         <v>43636</v>
       </c>
       <c r="B38" t="s">
@@ -1697,7 +2309,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
+      <c r="A39" s="1">
         <v>43640</v>
       </c>
       <c r="B39" t="s">
@@ -1714,7 +2326,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
+      <c r="A40" s="1">
         <v>43671</v>
       </c>
       <c r="B40" t="s">
@@ -1731,7 +2343,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
+      <c r="A41" s="1">
         <v>43682</v>
       </c>
       <c r="B41" t="s">
@@ -1748,7 +2360,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
+      <c r="A42" s="1">
         <v>43688</v>
       </c>
       <c r="B42" t="s">
@@ -1765,7 +2377,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
+      <c r="A43" s="1">
         <v>43689</v>
       </c>
       <c r="B43" t="s">
@@ -1782,7 +2394,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
+      <c r="A44" s="1">
         <v>43692</v>
       </c>
       <c r="B44" t="s">
@@ -1799,7 +2411,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
+      <c r="A45" s="1">
         <v>43710</v>
       </c>
       <c r="B45" t="s">
@@ -1816,7 +2428,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
+      <c r="A46" s="1">
         <v>43716</v>
       </c>
       <c r="B46" t="s">
@@ -1833,7 +2445,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
+      <c r="A47" s="1">
         <v>43716</v>
       </c>
       <c r="B47" t="s">
@@ -1850,7 +2462,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
+      <c r="A48" s="1">
         <v>43716</v>
       </c>
       <c r="B48" t="s">
@@ -1867,7 +2479,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
+      <c r="A49" s="1">
         <v>43717</v>
       </c>
       <c r="B49" t="s">
@@ -1884,7 +2496,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
+      <c r="A50" s="1">
         <v>43717</v>
       </c>
       <c r="B50" t="s">
@@ -1901,7 +2513,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
+      <c r="A51" s="1">
         <v>43717</v>
       </c>
       <c r="B51" t="s">
@@ -1918,7 +2530,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="9">
+      <c r="A52" s="1">
         <v>43719</v>
       </c>
       <c r="B52" t="s">
@@ -1935,7 +2547,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
+      <c r="A53" s="1">
         <v>43723</v>
       </c>
       <c r="B53" t="s">
@@ -1952,7 +2564,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="9">
+      <c r="A54" s="1">
         <v>43725</v>
       </c>
       <c r="B54" t="s">
@@ -1969,7 +2581,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
+      <c r="A55" s="1">
         <v>43747</v>
       </c>
       <c r="B55" t="s">
@@ -1986,7 +2598,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="9">
+      <c r="A56" s="1">
         <v>43750</v>
       </c>
       <c r="B56" t="s">
@@ -2003,7 +2615,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="9">
+      <c r="A57" s="1">
         <v>43770</v>
       </c>
       <c r="B57" t="s">
@@ -2020,7 +2632,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="9">
+      <c r="A58" s="1">
         <v>43802</v>
       </c>
       <c r="B58" t="s">
@@ -2037,7 +2649,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="9">
+      <c r="A59" s="1">
         <v>43805</v>
       </c>
       <c r="B59" t="s">
@@ -2054,7 +2666,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="9">
+      <c r="A60" s="1">
         <v>43807</v>
       </c>
       <c r="B60" t="s">
@@ -2071,7 +2683,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="9">
+      <c r="A61" s="1">
         <v>43808</v>
       </c>
       <c r="B61" t="s">
@@ -2088,13 +2700,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="9">
+      <c r="A62" s="1">
         <v>43823</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D62" t="s">
@@ -2105,13 +2717,13 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
+      <c r="A63" s="1">
         <v>43824</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D63" t="s">
@@ -2122,7 +2734,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="9">
+      <c r="A64" s="1">
         <v>43825</v>
       </c>
       <c r="B64" t="s">
@@ -2139,7 +2751,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
+      <c r="A65" s="1">
         <v>43828</v>
       </c>
       <c r="B65" t="s">
@@ -2156,7 +2768,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9">
+      <c r="A66" s="1">
         <v>43830</v>
       </c>
       <c r="B66" t="s">
@@ -2177,954 +2789,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F9D955-1D78-4015-9638-2ACD29A595D9}">
-  <dimension ref="A1:E56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6">
-        <v>43466</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2">
-        <f>VLOOKUP(A2,holidays!A:A,1,FALSE)</f>
-        <v>43466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
-        <v>43471</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3">
-        <f>VLOOKUP(A3,holidays!A:A,1,FALSE)</f>
-        <v>43471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
-        <v>43472</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4">
-        <f>VLOOKUP(A4,holidays!A:A,1,FALSE)</f>
-        <v>43472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
-        <v>43524</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <f>VLOOKUP(A5,holidays!A:A,1,FALSE)</f>
-        <v>43524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
-        <v>43525</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <f>VLOOKUP(A6,holidays!A:A,1,FALSE)</f>
-        <v>43525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
-        <v>43543</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7">
-        <f>VLOOKUP(A7,holidays!A:A,1,FALSE)</f>
-        <v>43543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
-        <v>43573</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8">
-        <f>VLOOKUP(A8,holidays!A:A,1,FALSE)</f>
-        <v>43573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
-        <v>43574</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9">
-        <f>VLOOKUP(A9,holidays!A:A,1,FALSE)</f>
-        <v>43574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
-        <v>43577</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10">
-        <f>VLOOKUP(A10,holidays!A:A,1,FALSE)</f>
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
-        <v>43578</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11">
-        <f>VLOOKUP(A11,holidays!A:A,1,FALSE)</f>
-        <v>43578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
-        <v>43578</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12">
-        <f>VLOOKUP(A12,holidays!A:A,1,FALSE)</f>
-        <v>43578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6">
-        <v>43586</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13">
-        <f>VLOOKUP(A13,holidays!A:A,1,FALSE)</f>
-        <v>43586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
-        <v>43587</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14">
-        <f>VLOOKUP(A14,holidays!A:A,1,FALSE)</f>
-        <v>43587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
-        <v>43600</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15">
-        <f>VLOOKUP(A15,holidays!A:A,1,FALSE)</f>
-        <v>43600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
-        <v>43602</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16">
-        <f>VLOOKUP(A16,holidays!A:A,1,FALSE)</f>
-        <v>43602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
-        <v>43615</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17">
-        <f>VLOOKUP(A17,holidays!A:A,1,FALSE)</f>
-        <v>43615</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6">
-        <v>43616</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <f>VLOOKUP(A18,holidays!A:A,1,FALSE)</f>
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
-        <v>43625</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19">
-        <f>VLOOKUP(A19,holidays!A:A,1,FALSE)</f>
-        <v>43625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
-        <v>43626</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20">
-        <f>VLOOKUP(A20,holidays!A:A,1,FALSE)</f>
-        <v>43626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6">
-        <v>43629</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21">
-        <f>VLOOKUP(A21,holidays!A:A,1,FALSE)</f>
-        <v>43629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6">
-        <v>43636</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22">
-        <f>VLOOKUP(A22,holidays!A:A,1,FALSE)</f>
-        <v>43636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6">
-        <v>43640</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23">
-        <f>VLOOKUP(A23,holidays!A:A,1,FALSE)</f>
-        <v>43640</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6">
-        <v>43671</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24">
-        <f>VLOOKUP(A24,holidays!A:A,1,FALSE)</f>
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6">
-        <v>43671</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25">
-        <f>VLOOKUP(A25,holidays!A:A,1,FALSE)</f>
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6">
-        <v>43674</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="e">
-        <f>VLOOKUP(A26,holidays!A:A,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6">
-        <v>43682</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27">
-        <f>VLOOKUP(A27,holidays!A:A,1,FALSE)</f>
-        <v>43682</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6">
-        <v>43689</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28">
-        <f>VLOOKUP(A28,holidays!A:A,1,FALSE)</f>
-        <v>43689</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="6">
-        <v>43692</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29">
-        <f>VLOOKUP(A29,holidays!A:A,1,FALSE)</f>
-        <v>43692</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="6">
-        <v>43710</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30">
-        <f>VLOOKUP(A30,holidays!A:A,1,FALSE)</f>
-        <v>43710</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="6">
-        <v>43716</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31">
-        <f>VLOOKUP(A31,holidays!A:A,1,FALSE)</f>
-        <v>43716</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="6">
-        <v>43716</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32">
-        <f>VLOOKUP(A32,holidays!A:A,1,FALSE)</f>
-        <v>43716</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="6">
-        <v>43717</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33">
-        <f>VLOOKUP(A33,holidays!A:A,1,FALSE)</f>
-        <v>43717</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="6">
-        <v>43717</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34">
-        <f>VLOOKUP(A34,holidays!A:A,1,FALSE)</f>
-        <v>43717</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="6">
-        <v>43717</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35">
-        <f>VLOOKUP(A35,holidays!A:A,1,FALSE)</f>
-        <v>43717</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="6">
-        <v>43719</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36">
-        <f>VLOOKUP(A36,holidays!A:A,1,FALSE)</f>
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="6">
-        <v>43723</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37">
-        <f>VLOOKUP(A37,holidays!A:A,1,FALSE)</f>
-        <v>43723</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="6">
-        <v>43725</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38">
-        <f>VLOOKUP(A38,holidays!A:A,1,FALSE)</f>
-        <v>43725</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="6">
-        <v>43747</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39">
-        <f>VLOOKUP(A39,holidays!A:A,1,FALSE)</f>
-        <v>43747</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="6">
-        <v>43750</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40">
-        <f>VLOOKUP(A40,holidays!A:A,1,FALSE)</f>
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="6">
-        <v>43770</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41">
-        <f>VLOOKUP(A41,holidays!A:A,1,FALSE)</f>
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="6">
-        <v>43778</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" t="e">
-        <f>VLOOKUP(A42,holidays!A:A,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="6">
-        <v>43802</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43">
-        <f>VLOOKUP(A43,holidays!A:A,1,FALSE)</f>
-        <v>43802</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="6">
-        <v>43805</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44">
-        <f>VLOOKUP(A44,holidays!A:A,1,FALSE)</f>
-        <v>43805</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="6">
-        <v>43807</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45">
-        <f>VLOOKUP(A45,holidays!A:A,1,FALSE)</f>
-        <v>43807</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="6">
-        <v>43808</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46">
-        <f>VLOOKUP(A46,holidays!A:A,1,FALSE)</f>
-        <v>43808</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="6">
-        <v>43824</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47">
-        <f>VLOOKUP(A47,holidays!A:A,1,FALSE)</f>
-        <v>43824</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="6">
-        <v>43825</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48">
-        <f>VLOOKUP(A48,holidays!A:A,1,FALSE)</f>
-        <v>43825</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://publicholidays.es/new-years-day/" xr:uid="{8E1C7553-B842-4D00-88E6-63E3FFA83808}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://publicholidays.es/epiphany/" xr:uid="{EC447E13-B89F-4D4F-AFF9-001EEA7A047B}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://publicholidays.es/epiphany/" xr:uid="{FC87CE6F-9385-42B5-B102-2BDE1C5CE503}"/>
-    <hyperlink ref="C7" r:id="rId4" display="https://publicholidays.es/st-josephs-day/" xr:uid="{6845A545-9F61-4383-94C9-4F527A0358D5}"/>
-    <hyperlink ref="C8" r:id="rId5" display="https://publicholidays.es/easter/" xr:uid="{90929F54-0F50-4A25-BBD2-E902FF1FA8DB}"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://publicholidays.es/easter/" xr:uid="{EB71DD1A-C818-45DE-B81C-F4A27ED6EB2B}"/>
-    <hyperlink ref="C10" r:id="rId7" display="https://publicholidays.es/easter/" xr:uid="{DD3FB739-B6C7-4B99-B139-246CE0B6BD26}"/>
-    <hyperlink ref="C13" r:id="rId8" display="https://publicholidays.es/labour-day/" xr:uid="{EAD84CD8-28E1-4DE6-AA9C-2FA71796DAFE}"/>
-    <hyperlink ref="C16" r:id="rId9" display="https://publicholidays.es/galician-literature-day/" xr:uid="{376102AB-5F9E-43DE-B186-C998F957C311}"/>
-    <hyperlink ref="C29" r:id="rId10" display="https://publicholidays.es/assumption-day/" xr:uid="{746DF2BA-25CA-465E-944E-62B6B67013B6}"/>
-    <hyperlink ref="C36" r:id="rId11" display="https://publicholidays.es/national-day-of-catalonia/" xr:uid="{1580798E-B026-4C2C-8784-94D91276F4EB}"/>
-    <hyperlink ref="C40" r:id="rId12" display="https://publicholidays.es/fiesta-nacional-de-espana/" xr:uid="{1CD0C73E-0CB1-470C-8450-0D7000E28A24}"/>
-    <hyperlink ref="C41" r:id="rId13" display="https://publicholidays.es/all-saints-day/" xr:uid="{C02169E9-92E8-46D8-A498-2A4EF869F37E}"/>
-    <hyperlink ref="C44" r:id="rId14" display="https://publicholidays.es/constitution-day/" xr:uid="{9B511FC0-81D8-4B03-8DC5-C959C22E3677}"/>
-    <hyperlink ref="C45" r:id="rId15" display="https://publicholidays.es/immaculate-conception/" xr:uid="{98EC909C-54F2-4CDC-84A5-C0240D5A628C}"/>
-    <hyperlink ref="C46" r:id="rId16" display="https://publicholidays.es/immaculate-conception/" xr:uid="{0FC033AB-67E0-4377-B682-2E23F4870526}"/>
-    <hyperlink ref="C47" r:id="rId17" display="https://publicholidays.es/christmas/" xr:uid="{A3F0C15C-8C41-411B-90A9-332EC6831BAE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
-</worksheet>
 </file>
--- a/datasets/holidays.xlsx
+++ b/datasets/holidays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bicaj\Documents\Graduate Courses\DS 5220 - Supervised Machine Learning\smlproject\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9956B0A-7341-4229-BC24-825AA506FA88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E94574-5A84-431D-8CE7-B8587C965916}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{85A40F23-2F78-448B-9A40-862266829EA4}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="holidays orig" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">holidays!$A$1:$E$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">holidays!$A$1:$F$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'holidays orig'!$A$1:$E$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="133">
   <si>
     <t>Tuesday</t>
   </si>
@@ -403,6 +403,39 @@
   </si>
   <si>
     <t>Gràcia Festival</t>
+  </si>
+  <si>
+    <t>rel_city</t>
+  </si>
+  <si>
+    <t>SEVILLA</t>
+  </si>
+  <si>
+    <t>BARCELONA</t>
+  </si>
+  <si>
+    <t>Granada, Valencia, Barcelona, Sevilla</t>
+  </si>
+  <si>
+    <t>Castile-La Mancha , Valencia, Sevilla</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>MADRID</t>
+  </si>
+  <si>
+    <t>Madrid - All</t>
+  </si>
+  <si>
+    <t>Aragon - Zaragoza is capital</t>
+  </si>
+  <si>
+    <t>PONFERRADA</t>
+  </si>
+  <si>
+    <t>Local festival</t>
   </si>
 </sst>
 </file>
@@ -798,22 +831,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD714C3E-5B86-456C-9A79-8469E1BACE5F}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="34.90625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="34.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>108</v>
       </c>
@@ -827,10 +861,13 @@
         <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43569</v>
       </c>
@@ -844,10 +881,13 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43573</v>
       </c>
@@ -860,8 +900,11 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43574</v>
       </c>
@@ -875,10 +918,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43576</v>
       </c>
@@ -892,10 +938,13 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43577</v>
       </c>
@@ -908,8 +957,11 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43578</v>
       </c>
@@ -922,11 +974,14 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43578</v>
       </c>
@@ -940,10 +995,13 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43578</v>
       </c>
@@ -957,10 +1015,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43583</v>
       </c>
@@ -973,8 +1034,11 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43586</v>
       </c>
@@ -988,10 +1052,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43587</v>
       </c>
@@ -1005,294 +1072,814 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>43589</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>43590</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>43591</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>43592</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>43593</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>43594</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>43594</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>43595</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>43596</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>43590</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>43625</v>
+      </c>
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>43594</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>43626</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>43636</v>
+      </c>
+      <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>43600</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>43616</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>43625</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>43625</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>43626</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>43626</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>43636</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C28" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>43640</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>43692</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>43716</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>43717</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>43719</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>43747</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>43750</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>43640</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>43692</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>43692</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>43693</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>43694</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>43695</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>43696</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>43697</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>43698</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>43719</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>43729</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>43730</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>43731</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>43732</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>43742</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>43743</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>43744</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>43745</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>43746</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>43747</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
+        <v>43748</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
+        <v>43749</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="7">
+        <v>43750</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <v>43751</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>43770</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B55" t="s">
         <v>19</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C55" t="s">
         <v>89</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D55" t="s">
         <v>2</v>
       </c>
+      <c r="E55" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E29" xr:uid="{199EC6E0-E5D2-4E04-80DC-7468FFE9E7B3}"/>
+  <autoFilter ref="A1:F55" xr:uid="{199EC6E0-E5D2-4E04-80DC-7468FFE9E7B3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F55">
+    <sortCondition ref="A2:A55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1302,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCC86F6-1A03-4C2E-870F-CACFD807CFAE}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1655,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72AD146-E37E-4D37-B50A-3096B131C434}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
